--- a/需求规格说明书/QFD打分表（已回收）/QFD开发人员.xlsx
+++ b/需求规格说明书/QFD打分表（已回收）/QFD开发人员.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
   <si>
     <t>特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +817,42 @@
   </si>
   <si>
     <t>相对风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站响应时间在一秒内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站的安全性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站用户注册审查功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站文件下载速度达到校网下载速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站能在主流浏览器中正常运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站在windows系统和linux系统上能正常运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员只能由客户设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站的备份/恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站在当前主流配置机子上能正常运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,13 +919,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1191,15 +1236,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F199" sqref="F199"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3399,6 +3444,116 @@
         <v>6</v>
       </c>
       <c r="C200" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B201" s="5">
+        <v>6</v>
+      </c>
+      <c r="C201" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="7">
+        <v>8</v>
+      </c>
+      <c r="C202" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="7">
+        <v>9</v>
+      </c>
+      <c r="C203" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="7">
+        <v>7</v>
+      </c>
+      <c r="C204" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="7">
+        <v>9</v>
+      </c>
+      <c r="C205" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="7">
+        <v>8</v>
+      </c>
+      <c r="C206" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="7">
+        <v>9</v>
+      </c>
+      <c r="C207" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="7">
+        <v>5</v>
+      </c>
+      <c r="C208" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="7">
+        <v>8</v>
+      </c>
+      <c r="C209" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="7">
+        <v>5</v>
+      </c>
+      <c r="C210" s="7">
         <v>5</v>
       </c>
     </row>
